--- a/inputs/vakkeninfo.xlsx
+++ b/inputs/vakkeninfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>naam</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>BI</t>
+  </si>
+  <si>
+    <t>Natuurkunde</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Scheikunde</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Frans</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
@@ -490,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -633,6 +657,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
